--- a/data/IndustryBar.xlsx
+++ b/data/IndustryBar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/Job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE76252-63C1-47AD-9174-BCA349C8CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9DE76252-63C1-47AD-9174-BCA349C8CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A55CEC-F830-4BF0-8CBF-AD80A4AEB7BA}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{CC2C4BE3-B9D3-4FCF-B38A-0191FD78F4D1}"/>
+    <workbookView xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="8190" xr2:uid="{CC2C4BE3-B9D3-4FCF-B38A-0191FD78F4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Industry Bar" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Administrative and support services</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -484,171 +487,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05F42BF-1C7C-4D4D-8FF7-C1DF24096E5A}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>158.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>114.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>104.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>104.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>57.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>55.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
         <v>50.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>49.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>47.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>-5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>-7.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>-18.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
